--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/sedimentairestructuurtype/sedimentairestructuurtype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/sedimentairestructuurtype/sedimentairestructuurtype.xlsx
@@ -2272,7 +2272,7 @@
         <v>null</v>
       </c>
       <c r="E65" t="str">
-        <v>Lijst van types secundaire structuren</v>
+        <v>Lijst van types sedimentaire structuren</v>
       </c>
       <c r="F65" t="str">
         <v>null</v>
